--- a/layout初始数据1.xlsx
+++ b/layout初始数据1.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
-    <sheet name="LcText" sheetId="4" r:id="rId2"/>
-    <sheet name="LcButton" sheetId="5" r:id="rId3"/>
-    <sheet name="ATTRIBUTES_DEFINITION" sheetId="2" r:id="rId4"/>
-    <sheet name="COMPONENT_TEMPLATE" sheetId="6" r:id="rId5"/>
+    <sheet name="LContainer" sheetId="7" r:id="rId2"/>
+    <sheet name="LcText" sheetId="4" r:id="rId3"/>
+    <sheet name="LcButton" sheetId="5" r:id="rId4"/>
+    <sheet name="ATTRIBUTES_DEFINITION" sheetId="2" r:id="rId5"/>
+    <sheet name="COMPONENT_TEMPLATE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -536,6 +537,143 @@
   </si>
   <si>
     <t>&lt;el-input v-model= id= style= &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT_TYPE</t>
+  </si>
+  <si>
+    <t>POSITION_IN_PARENT</t>
+  </si>
+  <si>
+    <t>FORM_ITEM_SIZE</t>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_LINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +1010,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,9 +1118,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1139,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1249,7 +1654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -1784,7 +2189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>

--- a/layout初始数据1.xlsx
+++ b/layout初始数据1.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
     <sheet name="LContainer" sheetId="7" r:id="rId2"/>
     <sheet name="LcText" sheetId="4" r:id="rId3"/>
     <sheet name="LcButton" sheetId="5" r:id="rId4"/>
-    <sheet name="ATTRIBUTES_DEFINITION" sheetId="2" r:id="rId5"/>
-    <sheet name="COMPONENT_TEMPLATE" sheetId="6" r:id="rId6"/>
+    <sheet name="LcSelect" sheetId="8" r:id="rId5"/>
+    <sheet name="ATTRIBUTES_DEFINITION" sheetId="2" r:id="rId6"/>
+    <sheet name="COMPONENT_TEMPLATE" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="191">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -52,629 +53,655 @@
     <t>ATTRIBUTE_TYPE</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ND_CODE</t>
+  </si>
+  <si>
+    <t>ND_NAME</t>
+  </si>
+  <si>
+    <t>ND_TYPE</t>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+  </si>
+  <si>
+    <t>CREATEOR</t>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+  </si>
+  <si>
+    <t>MODIFYER</t>
+  </si>
+  <si>
+    <t>UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>BIND_DATA</t>
+  </si>
+  <si>
+    <t>AUTH_MENU_BUTTON</t>
+  </si>
+  <si>
+    <t>BIND_ND_CODE</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT_ND_CODE</t>
+  </si>
+  <si>
+    <t>DATA_SOURSE_NAME</t>
+  </si>
+  <si>
+    <t>FUNCTION_LIST</t>
+  </si>
+  <si>
+    <t>INIT_FUNCTION_LIST</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout-save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>CREATOR</t>
+  </si>
+  <si>
+    <t>MODIFIER</t>
+  </si>
+  <si>
+    <t>TEMPLATE_START</t>
+  </si>
+  <si>
+    <t>TEMPLATE_BODY</t>
+  </si>
+  <si>
+    <t>TEMPLATE_END</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>LcComponentTemplateValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>&lt;/el-form-item&gt;&lt;/el-col&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-input&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-button&gt;</t>
+  </si>
+  <si>
+    <t>nd.fvs.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.fvs.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.fvs.ndCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/1/1 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAttributesDefinitionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_NAME</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docId</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>cssNames</t>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-col :span= &gt;&lt;el-form-item label= id= style= &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formItemSize</t>
+  </si>
+  <si>
+    <t>v-model</t>
+  </si>
+  <si>
+    <t>bindData</t>
+  </si>
+  <si>
+    <t>innerHtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.fvs.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-input v-model= id= style= &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT_TYPE</t>
+  </si>
+  <si>
+    <t>POSITION_IN_PARENT</t>
+  </si>
+  <si>
+    <t>FORM_ITEM_SIZE</t>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ND_CODE</t>
-  </si>
-  <si>
-    <t>ND_NAME</t>
-  </si>
-  <si>
-    <t>ND_TYPE</t>
-  </si>
-  <si>
-    <t>PARENT_ID</t>
-  </si>
-  <si>
-    <t>CREATEOR</t>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-  </si>
-  <si>
-    <t>MODIFYER</t>
-  </si>
-  <si>
-    <t>UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>BIND_DATA</t>
-  </si>
-  <si>
-    <t>AUTH_MENU_BUTTON</t>
-  </si>
-  <si>
-    <t>BIND_ND_CODE</t>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAYOUT_ND_CODE</t>
-  </si>
-  <si>
-    <t>DATA_SOURSE_NAME</t>
-  </si>
-  <si>
-    <t>FUNCTION_LIST</t>
-  </si>
-  <si>
-    <t>INIT_FUNCTION_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_LINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout-save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutSave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>CREATOR</t>
-  </si>
-  <si>
-    <t>MODIFIER</t>
-  </si>
-  <si>
-    <t>TEMPLATE_START</t>
-  </si>
-  <si>
-    <t>TEMPLATE_BODY</t>
-  </si>
-  <si>
-    <t>TEMPLATE_END</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>LcComponentTemplateValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>&lt;/el-form-item&gt;&lt;/el-col&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-input&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-button&gt;</t>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.fvs.code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.fvs.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.fvs.ndCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-form&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/1/1 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>202</t>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCORDION</t>
+  </si>
+  <si>
+    <t>TABLE_COLUMN_TYPE</t>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
   </si>
   <si>
     <t>125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAttributesDefinitionValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_NAME</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docId</t>
-  </si>
-  <si>
-    <t>&lt;el-form id= style= &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>cssNames</t>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-col :span= &gt;&lt;el-form-item label= id= style= &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formItemSize</t>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v-model</t>
-  </si>
-  <si>
-    <t>bindData</t>
-  </si>
-  <si>
-    <t>&lt;el-button id= style= &gt;label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>innerHtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.fvs.code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-input v-model= id= style= &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAYOUT_TYPE</t>
-  </si>
-  <si>
-    <t>POSITION_IN_PARENT</t>
-  </si>
-  <si>
-    <t>FORM_ITEM_SIZE</t>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout-form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_LINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-button id= style= &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_SOURSE</t>
+  </si>
+  <si>
+    <t>&lt;/el-option&gt;&lt;/el-select&gt;</t>
+  </si>
+  <si>
+    <t>&lt;el-select v-model= &gt;&lt;el-option v-for="item in " :key="item.key" :label="item.label" :value="item.value" &gt;</t>
+  </si>
+  <si>
+    <t>212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lDataSourse</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1037,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,81 +1060,81 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1118,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,21 +1169,21 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1171,209 +1198,215 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1421,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,31 +1442,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -1448,94 +1481,94 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1582,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1559,31 +1592,31 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -1601,51 +1634,51 @@
         <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1656,10 +1689,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1681,28 +1792,28 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1711,475 +1822,627 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>112</v>
+      <c r="G14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2189,12 +2452,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2217,766 +2480,859 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>159</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>27</v>
+        <v>172</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/layout初始数据1.xlsx
+++ b/layout初始数据1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="192">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -359,23 +359,10 @@
     <t>FD_NAME</t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docId</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>cssNames</t>
-  </si>
-  <si>
     <t>06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,68 +395,280 @@
     <t>bindData</t>
   </si>
   <si>
-    <t>innerHtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATTRIBUTE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.fvs.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-input v-model= id= style= &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT_TYPE</t>
+  </si>
+  <si>
+    <t>POSITION_IN_PARENT</t>
+  </si>
+  <si>
+    <t>FORM_ITEM_SIZE</t>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.fvs.code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-input v-model= id= style= &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAYOUT_TYPE</t>
-  </si>
-  <si>
-    <t>POSITION_IN_PARENT</t>
-  </si>
-  <si>
-    <t>FORM_ITEM_SIZE</t>
+    <t>layout-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
+    <t>item3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_LINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCORDION</t>
+  </si>
+  <si>
+    <t>TABLE_COLUMN_TYPE</t>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-button id= style= &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_SOURSE</t>
+  </si>
+  <si>
+    <t>&lt;/el-option&gt;&lt;/el-select&gt;</t>
+  </si>
+  <si>
+    <t>&lt;el-select v-model= &gt;&lt;el-option v-for="item in " :key="item.key" :label="item.label" :value="item.value" &gt;</t>
+  </si>
+  <si>
+    <t>212</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,231 +676,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>layout-form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_LINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
+    <t>TreeNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lDataSourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-for</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>106</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCORDION</t>
-  </si>
-  <si>
-    <t>TABLE_COLUMN_TYPE</t>
-  </si>
-  <si>
-    <t>201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-button id= style= &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_SOURSE</t>
-  </si>
-  <si>
-    <t>&lt;/el-option&gt;&lt;/el-select&gt;</t>
-  </si>
-  <si>
-    <t>&lt;el-select v-model= &gt;&lt;el-option v-for="item in " :key="item.key" :label="item.label" :value="item.value" &gt;</t>
-  </si>
-  <si>
-    <t>212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v-for</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lDataSourse</t>
   </si>
 </sst>
 </file>
@@ -1034,106 +1042,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1145,268 +1160,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="O5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1418,156 +1446,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="N3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="N4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1579,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1590,94 +1622,97 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1689,74 +1724,78 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
-        <v>184</v>
+      <c r="P1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1767,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1839,7 +1878,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>91</v>
@@ -1851,22 +1890,22 @@
         <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>85</v>
@@ -1889,19 +1928,19 @@
         <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>100</v>
@@ -1927,22 +1966,22 @@
         <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>85</v>
@@ -1953,7 +1992,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>91</v>
@@ -1965,22 +2004,22 @@
         <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>85</v>
@@ -1991,7 +2030,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>91</v>
@@ -2003,445 +2042,27 @@
         <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2457,7 +2078,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2661,10 +2282,10 @@
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>85</v>
@@ -2696,7 +2317,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>79</v>
@@ -2844,7 +2465,7 @@
         <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>85</v>
@@ -2873,10 +2494,10 @@
         <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>80</v>
@@ -2908,10 +2529,10 @@
         <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>81</v>
@@ -2943,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>85</v>
@@ -2972,7 +2593,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>85</v>
@@ -3001,7 +2622,7 @@
         <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>85</v>
@@ -3030,7 +2651,7 @@
         <v>90</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>85</v>
@@ -3059,7 +2680,7 @@
         <v>90</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>85</v>
@@ -3088,7 +2709,7 @@
         <v>90</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>85</v>
@@ -3117,7 +2738,7 @@
         <v>90</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>85</v>
@@ -3146,7 +2767,7 @@
         <v>90</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>85</v>
@@ -3175,13 +2796,13 @@
         <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>85</v>
@@ -3210,7 +2831,7 @@
         <v>90</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>85</v>
@@ -3239,7 +2860,7 @@
         <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>85</v>
@@ -3250,7 +2871,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>60</v>
@@ -3268,7 +2889,7 @@
         <v>90</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>85</v>
@@ -3279,7 +2900,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>60</v>
@@ -3297,7 +2918,7 @@
         <v>90</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>85</v>
@@ -3308,7 +2929,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>60</v>
@@ -3326,7 +2947,7 @@
         <v>90</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>85</v>

--- a/layout初始数据1.xlsx
+++ b/layout初始数据1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -647,68 +647,68 @@
     <t>127</t>
   </si>
   <si>
+    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-button id= style= &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_SOURSE</t>
+  </si>
+  <si>
+    <t>&lt;/el-option&gt;&lt;/el-select&gt;</t>
+  </si>
+  <si>
+    <t>&lt;el-select v-model= &gt;&lt;el-option v-for="item in " :key="item.key" :label="item.label" :value="item.value" &gt;</t>
+  </si>
+  <si>
+    <t>212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lDataSourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-button id= style= &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_SOURSE</t>
-  </si>
-  <si>
-    <t>&lt;/el-option&gt;&lt;/el-select&gt;</t>
-  </si>
-  <si>
-    <t>&lt;el-select v-model= &gt;&lt;el-option v-for="item in " :key="item.key" :label="item.label" :value="item.value" &gt;</t>
-  </si>
-  <si>
-    <t>212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TreeNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bindData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lDataSourse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v-for</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -1187,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>116</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>125</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>130</v>
@@ -1448,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1471,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1750,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -1795,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>91</v>
@@ -1890,7 +1890,7 @@
         <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>94</v>
@@ -1928,7 +1928,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>94</v>
@@ -1966,7 +1966,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>94</v>
@@ -1981,7 +1981,7 @@
         <v>96</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>85</v>
@@ -2004,13 +2004,13 @@
         <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>104</v>
@@ -2042,22 +2042,22 @@
         <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>85</v>
@@ -2078,7 +2078,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2282,10 +2282,10 @@
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>85</v>
@@ -2532,7 +2532,7 @@
         <v>153</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>81</v>
@@ -2799,10 +2799,10 @@
         <v>166</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>85</v>

--- a/layout初始数据1.xlsx
+++ b/layout初始数据1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -661,9 +661,6 @@
     <t>&lt;/el-option&gt;&lt;/el-select&gt;</t>
   </si>
   <si>
-    <t>&lt;el-select v-model= &gt;&lt;el-option v-for="item in " :key="item.key" :label="item.label" :value="item.value" &gt;</t>
-  </si>
-  <si>
     <t>212</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +706,10 @@
   </si>
   <si>
     <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-select v-model= &gt;&lt;el-option v-for= :key="item.key" :label="item.label" :value="item.value" &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1046,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,7 +1059,7 @@
     <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
@@ -1069,7 +1070,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1119,7 +1120,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -1162,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1187,7 +1188,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1252,7 +1253,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>116</v>
@@ -1284,7 +1285,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>125</v>
@@ -1325,7 +1326,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>130</v>
@@ -1448,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1471,7 +1472,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1624,7 +1625,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1750,7 +1751,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -1878,7 +1879,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>91</v>
@@ -1890,7 +1891,7 @@
         <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>94</v>
@@ -1928,7 +1929,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>94</v>
@@ -1966,7 +1967,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>94</v>
@@ -1981,7 +1982,7 @@
         <v>96</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>85</v>
@@ -2004,13 +2005,13 @@
         <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>104</v>
@@ -2042,22 +2043,22 @@
         <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>85</v>
@@ -2078,7 +2079,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2282,7 +2283,7 @@
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>175</v>
@@ -2799,7 +2800,7 @@
         <v>166</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>178</v>

--- a/layout初始数据1.xlsx
+++ b/layout初始数据1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="267">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -705,11 +705,297 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;el-collapse-item id= style= &gt;</t>
+  </si>
+  <si>
+    <t>LcPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCollapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCollapseItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcFormItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格列</t>
+  </si>
+  <si>
+    <t>LcTabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页</t>
+  </si>
+  <si>
+    <t>LcTabItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页项目</t>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTextArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPercentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTransfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿梭框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcRadio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcIframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内联框架</t>
+  </si>
+  <si>
     <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;el-select v-model= &gt;&lt;el-option v-for= :key="item.key" :label="item.label" :value="item.value" &gt;</t>
+    <t>&lt;/el-collapse-item&gt;</t>
+  </si>
+  <si>
+    <t>&lt;el-select v-model= &gt;&lt;el-option v-for= :key="item.key" :label="item.label" :value="item.value" :disabled="item.disabled" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binddata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindNdCode</t>
+  </si>
+  <si>
+    <t>bindndcode</t>
+  </si>
+  <si>
+    <t>callbackparent</t>
+  </si>
+  <si>
+    <t>callbackname</t>
+  </si>
+  <si>
+    <t>callbackParent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callbackName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>authMenuButton</t>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endLine</t>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitParentId</t>
+  </si>
+  <si>
+    <t>parentid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1163,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1807,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,6 +2353,272 @@
         <v>86</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2100,7 +2652,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -2172,8 +2724,17 @@
       <c r="L2" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2201,8 +2762,17 @@
       <c r="L3" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2224,14 +2794,29 @@
       <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2259,8 +2844,17 @@
       <c r="L5" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2283,7 +2877,7 @@
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>175</v>
@@ -2294,8 +2888,17 @@
       <c r="L6" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -2329,8 +2932,17 @@
       <c r="L7" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2358,8 +2970,17 @@
       <c r="L8" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2387,8 +3008,17 @@
       <c r="L9" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2416,8 +3046,17 @@
       <c r="L10" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2445,8 +3084,17 @@
       <c r="L11" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -2474,8 +3122,17 @@
       <c r="L12" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -2509,8 +3166,17 @@
       <c r="L13" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -2544,8 +3210,17 @@
       <c r="L14" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2573,8 +3248,17 @@
       <c r="L15" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2602,8 +3286,17 @@
       <c r="L16" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,8 +3324,17 @@
       <c r="L17" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2660,8 +3362,17 @@
       <c r="L18" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +3400,17 @@
       <c r="L19" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +3438,17 @@
       <c r="L20" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +3476,17 @@
       <c r="L21" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +3514,17 @@
       <c r="L22" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2800,7 +3547,7 @@
         <v>166</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>178</v>
@@ -2811,8 +3558,17 @@
       <c r="L23" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2840,8 +3596,17 @@
       <c r="L24" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2869,8 +3634,17 @@
       <c r="L25" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>172</v>
       </c>
@@ -2898,8 +3672,17 @@
       <c r="L26" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>173</v>
       </c>
@@ -2927,8 +3710,17 @@
       <c r="L27" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>174</v>
       </c>
@@ -2955,6 +3747,15 @@
       </c>
       <c r="L28" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
